--- a/seagrass/initial_datasheets/MarineGEO_Seagrass-Biomass_Datasheet_v0.3.0.xlsx
+++ b/seagrass/initial_datasheets/MarineGEO_Seagrass-Biomass_Datasheet_v0.3.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Seagrasses\seagrass-biomass\Fieldsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\seagrass\initial_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C550FF0-F493-40A5-A45F-B0D5AF750CFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B16891-F2EC-4DBA-A5A3-55E42CCB1AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Root sheet" sheetId="1" r:id="rId1"/>
@@ -881,161 +881,230 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1060,75 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A24" sqref="A24:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -1560,22 +1560,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
       <c r="A2" s="21"/>
@@ -1590,422 +1590,422 @@
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="26" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="54" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1" thickBot="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="37" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="52" t="s">
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="52"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" ht="12.95" customHeight="1" thickBot="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="64" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="41" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="64" t="s">
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="67"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="51"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="51"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="70"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="70"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="70"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="48"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="51"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="51"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" ht="4.5" hidden="1" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1"/>
@@ -2013,6 +2013,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A24:N26"/>
     <mergeCell ref="A3:D3"/>
@@ -2029,95 +2111,13 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter xml:space="preserve">&amp;C&amp;"System Font,Regular"&amp;10&amp;K000000
 </oddFooter>
-    <firstFooter>&amp;LDatasheets available for download at https://marinegeo.github.io/seagrass&amp;RPage __ of __</firstFooter>
+    <firstFooter>&amp;Lhttps://doi.org/10.25573/serc.14925114.v1</firstFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2140,22 +2140,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
@@ -2164,52 +2164,52 @@
       <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1" thickBot="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="107"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="107"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14" ht="12.95" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2228,391 +2228,461 @@
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101" t="s">
+      <c r="J6" s="88"/>
+      <c r="K6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101" t="s">
+      <c r="L6" s="89"/>
+      <c r="M6" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="102"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="95"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="94"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="88"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="91"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="100"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="88"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="91"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="100"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="88"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="97"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="91"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="88"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="91"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="100"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="88"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="97"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="91"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="100"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="88"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="97"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="91"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="100"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="88"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="91"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="97"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="91"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="100"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="88"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="97"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="104"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="88"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="97"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="20"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="104"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="85"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
@@ -2621,86 +2691,16 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
